--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_LANLINK.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_LANLINK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="3300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="3300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DirectFiber" sheetId="17" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13344" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13687" uniqueCount="1078">
   <si>
     <t>Yes</t>
   </si>
@@ -2438,30 +2438,18 @@
     <t>112edit</t>
   </si>
   <si>
-    <t>DirectFiberFR_Scripts402</t>
-  </si>
-  <si>
     <t>equip11</t>
   </si>
   <si>
     <t>CF72</t>
   </si>
   <si>
-    <t>Adevi0342.lanlink.dcn.colt.net</t>
-  </si>
-  <si>
-    <t>14.32.65.352</t>
-  </si>
-  <si>
     <t>DC Single Power Supply - Feed A</t>
   </si>
   <si>
     <t>158</t>
   </si>
   <si>
-    <t>14.32.57.352</t>
-  </si>
-  <si>
     <t>amst352</t>
   </si>
   <si>
@@ -3044,9 +3032,6 @@
     <t>IZ56</t>
   </si>
   <si>
-    <t>DR07061</t>
-  </si>
-  <si>
     <t>111.lanlink.dcn.colt.net</t>
   </si>
   <si>
@@ -3056,9 +3041,6 @@
     <t>LAG2</t>
   </si>
   <si>
-    <t>AMS_CA_02874.lanlink.dcn.colt.net</t>
-  </si>
-  <si>
     <t>METR_ser0611</t>
   </si>
   <si>
@@ -3176,12 +3158,6 @@
     <t>14.32.57.63</t>
   </si>
   <si>
-    <t>outband02TestS7</t>
-  </si>
-  <si>
-    <t>out02site2461</t>
-  </si>
-  <si>
     <t>16461</t>
   </si>
   <si>
@@ -3197,23 +3173,98 @@
     <t>I5106S</t>
   </si>
   <si>
-    <t>de_n_03460.lanlink.dcn.colt.net</t>
-  </si>
-  <si>
-    <t>13.41.65.60</t>
-  </si>
-  <si>
     <t>De_n_102460ntEquip.lanlink.dcn.colt.net</t>
   </si>
   <si>
     <t>14.50.54.60</t>
+  </si>
+  <si>
+    <t>outband02TestS8</t>
+  </si>
+  <si>
+    <t>Onnet-Offnet</t>
+  </si>
+  <si>
+    <t>out02site2462</t>
+  </si>
+  <si>
+    <t>de_n_03470.lanlink.dcn.colt.net</t>
+  </si>
+  <si>
+    <t>13.41.65.70</t>
+  </si>
+  <si>
+    <t>INT08091</t>
+  </si>
+  <si>
+    <t>INT080291</t>
+  </si>
+  <si>
+    <t>INRFI91</t>
+  </si>
+  <si>
+    <t>DINCH_0391</t>
+  </si>
+  <si>
+    <t>DInCHvl_0391</t>
+  </si>
+  <si>
+    <t>nt_Serv_084191</t>
+  </si>
+  <si>
+    <t>I51091S</t>
+  </si>
+  <si>
+    <t>In_n_03491.lanlink.dcn.colt.net</t>
+  </si>
+  <si>
+    <t>13.41.65.91</t>
+  </si>
+  <si>
+    <t>De_n_102491ntEquip.lanlink.dcn.colt.net</t>
+  </si>
+  <si>
+    <t>14.50.54.91</t>
+  </si>
+  <si>
+    <t>DirectFiberFR_Scripts491</t>
+  </si>
+  <si>
+    <t>DR070901</t>
+  </si>
+  <si>
+    <t>Adevi03491.lanlink.dcn.colt.net</t>
+  </si>
+  <si>
+    <t>14.32.65.390</t>
+  </si>
+  <si>
+    <t>AMS_CA_028901.lanlink.dcn.colt.net</t>
+  </si>
+  <si>
+    <t>14.32.57.391</t>
+  </si>
+  <si>
+    <t>SMEpi_o191M</t>
+  </si>
+  <si>
+    <t>devMEi4051904.lanlink.dcn.colt.net</t>
+  </si>
+  <si>
+    <t>13.19.65.89</t>
+  </si>
+  <si>
+    <t>devicMEe0009014y.lanlink.dcn.colt.net</t>
+  </si>
+  <si>
+    <t>14.32.55.59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3300,6 +3351,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3464,7 +3521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3623,6 +3680,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3972,9 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LY7"/>
   <sheetViews>
-    <sheetView topLeftCell="LC1" workbookViewId="0">
-      <selection activeCell="LE1" sqref="LE1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4197,9 +4253,9 @@
     <col min="242" max="242" width="15.140625" customWidth="1"/>
     <col min="243" max="243" width="24.85546875" customWidth="1"/>
     <col min="244" max="244" width="18.28515625" style="11" customWidth="1"/>
-    <col min="245" max="245" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="246" max="246" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="248" max="248" width="22.7109375" customWidth="1"/>
     <col min="249" max="249" width="24.85546875" customWidth="1"/>
     <col min="250" max="250" width="24" customWidth="1"/>
@@ -4222,6 +4278,8 @@
     <col min="274" max="274" width="15.5703125" customWidth="1"/>
     <col min="275" max="275" width="17.140625" customWidth="1"/>
     <col min="276" max="276" width="17.28515625" customWidth="1"/>
+    <col min="280" max="280" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="312" max="312" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="313" max="313" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="314" max="314" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -5488,10 +5546,10 @@
         <v>8</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>804</v>
+        <v>1067</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="CD2" s="5" t="s">
         <v>158</v>
@@ -5629,7 +5687,7 @@
         <v>89</v>
       </c>
       <c r="DW2" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="DX2" s="7" t="s">
         <v>0</v>
@@ -5641,10 +5699,10 @@
         <v>45</v>
       </c>
       <c r="EA2" s="7" t="s">
-        <v>1006</v>
+        <v>1068</v>
       </c>
       <c r="EB2" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="EC2" s="7" t="s">
         <v>95</v>
@@ -5692,10 +5750,10 @@
         <v>95</v>
       </c>
       <c r="ER2" s="27" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="ES2" s="18" t="s">
-        <v>807</v>
+        <v>1069</v>
       </c>
       <c r="ET2" s="19" t="s">
         <v>218</v>
@@ -5707,13 +5765,13 @@
         <v>205</v>
       </c>
       <c r="EW2" s="18" t="s">
-        <v>808</v>
+        <v>1070</v>
       </c>
       <c r="EX2" s="18" t="s">
         <v>119</v>
       </c>
       <c r="EY2" s="19" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="EZ2" s="19" t="s">
         <v>235</v>
@@ -5725,7 +5783,7 @@
         <v>209</v>
       </c>
       <c r="FC2" s="18" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="FD2" s="18" t="s">
         <v>0</v>
@@ -5752,7 +5810,7 @@
         <v>414</v>
       </c>
       <c r="FL2" s="3" t="s">
-        <v>1010</v>
+        <v>1071</v>
       </c>
       <c r="FM2" s="1" t="s">
         <v>204</v>
@@ -5776,7 +5834,7 @@
         <v>709</v>
       </c>
       <c r="FT2" s="3" t="s">
-        <v>811</v>
+        <v>1072</v>
       </c>
       <c r="FU2" s="3" t="s">
         <v>119</v>
@@ -5842,13 +5900,13 @@
         <v>29</v>
       </c>
       <c r="GP2" s="3" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="GQ2" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="GR2" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="GS2" s="3" t="s">
         <v>119</v>
@@ -5857,10 +5915,10 @@
         <v>93</v>
       </c>
       <c r="GU2" s="22" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="GV2" s="22" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="GW2" s="22" t="s">
         <v>0</v>
@@ -5869,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="GY2" s="22" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="GZ2" s="13" t="s">
         <v>59</v>
@@ -5941,7 +5999,7 @@
         <v>95</v>
       </c>
       <c r="HW2" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="HX2" s="6" t="s">
         <v>119</v>
@@ -5982,8 +6040,8 @@
       <c r="IJ2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="IK2" s="3" t="s">
-        <v>304</v>
+      <c r="IK2" s="80" t="s">
+        <v>1003</v>
       </c>
       <c r="IL2" s="3" t="s">
         <v>399</v>
@@ -6501,7 +6559,7 @@
         <v>8</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="CC3" s="46" t="s">
         <v>95</v>
@@ -6642,7 +6700,7 @@
         <v>89</v>
       </c>
       <c r="DW3" s="46" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="DX3" s="46" t="s">
         <v>0</v>
@@ -6654,10 +6712,10 @@
         <v>45</v>
       </c>
       <c r="EA3" s="46" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="EB3" s="46" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="EC3" s="46" t="s">
         <v>95</v>
@@ -6708,7 +6766,7 @@
         <v>691</v>
       </c>
       <c r="ES3" s="46" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="ET3" s="51" t="s">
         <v>309</v>
@@ -6720,7 +6778,7 @@
         <v>205</v>
       </c>
       <c r="EW3" s="18" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="EX3" s="46" t="s">
         <v>119</v>
@@ -6738,7 +6796,7 @@
         <v>209</v>
       </c>
       <c r="FC3" s="46" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="FD3" s="46" t="s">
         <v>0</v>
@@ -6765,7 +6823,7 @@
         <v>414</v>
       </c>
       <c r="FL3" s="46" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="FM3" s="51" t="s">
         <v>204</v>
@@ -6789,7 +6847,7 @@
         <v>710</v>
       </c>
       <c r="FT3" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="FU3" s="46" t="s">
         <v>119</v>
@@ -6858,10 +6916,10 @@
         <v>0</v>
       </c>
       <c r="GQ3" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="GR3" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="GS3" s="46" t="s">
         <v>119</v>
@@ -7295,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="H4" s="46" t="s">
         <v>345</v>
@@ -7307,7 +7365,7 @@
         <v>642</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="L4" s="37" t="s">
         <v>643</v>
@@ -7346,7 +7404,7 @@
         <v>119</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>119</v>
@@ -7514,7 +7572,7 @@
         <v>8</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="CC4" s="3" t="s">
         <v>0</v>
@@ -7610,7 +7668,7 @@
         <v>377</v>
       </c>
       <c r="DH4" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DI4" s="7" t="s">
         <v>378</v>
@@ -7655,7 +7713,7 @@
         <v>89</v>
       </c>
       <c r="DW4" s="7" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="DX4" s="7" t="s">
         <v>0</v>
@@ -7667,10 +7725,10 @@
         <v>376</v>
       </c>
       <c r="EA4" s="7" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="EB4" s="7" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="EC4" s="7" t="s">
         <v>95</v>
@@ -7721,7 +7779,7 @@
         <v>691</v>
       </c>
       <c r="ES4" s="18" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="ET4" s="19" t="s">
         <v>309</v>
@@ -7733,7 +7791,7 @@
         <v>205</v>
       </c>
       <c r="EW4" s="18" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="EX4" s="18" t="s">
         <v>119</v>
@@ -7751,7 +7809,7 @@
         <v>209</v>
       </c>
       <c r="FC4" s="18" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="FD4" s="18" t="s">
         <v>0</v>
@@ -7778,7 +7836,7 @@
         <v>414</v>
       </c>
       <c r="FL4" s="3" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="FM4" s="1" t="s">
         <v>204</v>
@@ -7802,7 +7860,7 @@
         <v>707</v>
       </c>
       <c r="FT4" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="FU4" s="3" t="s">
         <v>119</v>
@@ -7871,10 +7929,10 @@
         <v>0</v>
       </c>
       <c r="GQ4" s="3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="GR4" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="GS4" s="3" t="s">
         <v>119</v>
@@ -8036,7 +8094,7 @@
         <v>122</v>
       </c>
       <c r="IT4" s="78" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="IU4" s="15" t="s">
         <v>123</v>
@@ -8359,7 +8417,7 @@
         <v>119</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>119</v>
@@ -8497,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="BR5" s="42" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="BS5" s="42" t="s">
         <v>166</v>
@@ -8527,7 +8585,7 @@
         <v>8</v>
       </c>
       <c r="CB5" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="CC5" s="3" t="s">
         <v>95</v>
@@ -8668,7 +8726,7 @@
         <v>89</v>
       </c>
       <c r="DW5" s="7" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="DX5" s="7" t="s">
         <v>0</v>
@@ -8680,10 +8738,10 @@
         <v>376</v>
       </c>
       <c r="EA5" s="7" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="EB5" s="7" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="EC5" s="7" t="s">
         <v>95</v>
@@ -8734,7 +8792,7 @@
         <v>691</v>
       </c>
       <c r="ES5" s="18" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="ET5" s="19" t="s">
         <v>309</v>
@@ -8746,7 +8804,7 @@
         <v>205</v>
       </c>
       <c r="EW5" s="18" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="EX5" s="18" t="s">
         <v>119</v>
@@ -8764,7 +8822,7 @@
         <v>209</v>
       </c>
       <c r="FC5" s="18" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="FD5" s="18" t="s">
         <v>0</v>
@@ -8791,7 +8849,7 @@
         <v>414</v>
       </c>
       <c r="FL5" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="FM5" s="1" t="s">
         <v>204</v>
@@ -8815,7 +8873,7 @@
         <v>708</v>
       </c>
       <c r="FT5" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="FU5" s="3" t="s">
         <v>119</v>
@@ -8884,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="GQ5" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="GR5" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="GS5" s="3" t="s">
         <v>119</v>
@@ -9049,7 +9107,7 @@
         <v>122</v>
       </c>
       <c r="IT5" s="78" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="IU5" s="15" t="s">
         <v>123</v>
@@ -9540,7 +9598,7 @@
         <v>8</v>
       </c>
       <c r="CB6" s="3" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="CC6" s="3" t="s">
         <v>95</v>
@@ -9681,7 +9739,7 @@
         <v>89</v>
       </c>
       <c r="DW6" s="7" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="DX6" s="7" t="s">
         <v>0</v>
@@ -9693,10 +9751,10 @@
         <v>376</v>
       </c>
       <c r="EA6" s="7" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="EB6" s="7" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="EC6" s="7" t="s">
         <v>95</v>
@@ -9747,7 +9805,7 @@
         <v>691</v>
       </c>
       <c r="ES6" s="18" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="ET6" s="19" t="s">
         <v>309</v>
@@ -9759,7 +9817,7 @@
         <v>205</v>
       </c>
       <c r="EW6" s="18" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="EX6" s="18" t="s">
         <v>119</v>
@@ -9777,7 +9835,7 @@
         <v>209</v>
       </c>
       <c r="FC6" s="18" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="FD6" s="18" t="s">
         <v>0</v>
@@ -9804,7 +9862,7 @@
         <v>414</v>
       </c>
       <c r="FL6" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="FM6" s="1" t="s">
         <v>204</v>
@@ -9828,7 +9886,7 @@
         <v>709</v>
       </c>
       <c r="FT6" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="FU6" s="3" t="s">
         <v>119</v>
@@ -9897,10 +9955,10 @@
         <v>0</v>
       </c>
       <c r="GQ6" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="GR6" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="GS6" s="3" t="s">
         <v>119</v>
@@ -10062,7 +10120,7 @@
         <v>122</v>
       </c>
       <c r="IT6" s="78" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="IU6" s="15" t="s">
         <v>123</v>
@@ -10334,7 +10392,7 @@
         <v>95</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="H7" s="46" t="s">
         <v>345</v>
@@ -10346,7 +10404,7 @@
         <v>642</v>
       </c>
       <c r="K7" s="69" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="L7" s="69" t="s">
         <v>643</v>
@@ -10385,7 +10443,7 @@
         <v>119</v>
       </c>
       <c r="X7" s="46" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="Y7" s="46" t="s">
         <v>119</v>
@@ -10553,7 +10611,7 @@
         <v>8</v>
       </c>
       <c r="CB7" s="3" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="CC7" s="46" t="s">
         <v>0</v>
@@ -10694,7 +10752,7 @@
         <v>89</v>
       </c>
       <c r="DW7" s="46" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="DX7" s="46" t="s">
         <v>0</v>
@@ -10706,10 +10764,10 @@
         <v>45</v>
       </c>
       <c r="EA7" s="46" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="EB7" s="46" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="EC7" s="46" t="s">
         <v>95</v>
@@ -10760,7 +10818,7 @@
         <v>691</v>
       </c>
       <c r="ES7" s="46" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="ET7" s="51" t="s">
         <v>309</v>
@@ -10772,7 +10830,7 @@
         <v>205</v>
       </c>
       <c r="EW7" s="18" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="EX7" s="46" t="s">
         <v>119</v>
@@ -10790,7 +10848,7 @@
         <v>209</v>
       </c>
       <c r="FC7" s="46" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="FD7" s="46" t="s">
         <v>0</v>
@@ -10817,7 +10875,7 @@
         <v>414</v>
       </c>
       <c r="FL7" s="46" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="FM7" s="51" t="s">
         <v>204</v>
@@ -10841,7 +10899,7 @@
         <v>710</v>
       </c>
       <c r="FT7" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="FU7" s="46" t="s">
         <v>119</v>
@@ -10910,10 +10968,10 @@
         <v>95</v>
       </c>
       <c r="GQ7" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="GR7" s="3" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="GS7" s="46" t="s">
         <v>119</v>
@@ -11075,7 +11133,7 @@
         <v>122</v>
       </c>
       <c r="IT7" s="78" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="IU7" s="76" t="s">
         <v>123</v>
@@ -11486,14 +11544,17 @@
     <col min="132" max="132" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="20" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="152" max="153" width="18.85546875" customWidth="1"/>
     <col min="154" max="154" width="19.5703125" customWidth="1"/>
     <col min="155" max="155" width="26" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="30" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="33" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="19.5703125" customWidth="1"/>
-    <col min="159" max="159" width="16.5703125" customWidth="1"/>
-    <col min="160" max="160" width="16.42578125" customWidth="1"/>
+    <col min="159" max="159" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="19" customWidth="1"/>
     <col min="162" max="162" width="14.140625" customWidth="1"/>
     <col min="163" max="163" width="21" customWidth="1"/>
@@ -11502,10 +11563,10 @@
     <col min="166" max="166" width="18.42578125" customWidth="1"/>
     <col min="167" max="167" width="19.7109375" customWidth="1"/>
     <col min="168" max="168" width="23.42578125" customWidth="1"/>
-    <col min="169" max="169" width="19.28515625" customWidth="1"/>
-    <col min="170" max="170" width="22.7109375" customWidth="1"/>
+    <col min="169" max="169" width="37" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="22.85546875" customWidth="1"/>
-    <col min="172" max="172" width="13.42578125" customWidth="1"/>
+    <col min="172" max="172" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="15.5703125" style="2" customWidth="1"/>
     <col min="174" max="174" width="25.28515625" customWidth="1"/>
     <col min="177" max="177" width="20" customWidth="1"/>
@@ -13375,7 +13436,7 @@
         <v>95</v>
       </c>
       <c r="IJ2" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="IK2" s="6" t="s">
         <v>119</v>
@@ -13749,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>345</v>
@@ -13761,7 +13822,7 @@
         <v>642</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>643</v>
@@ -13800,10 +13861,10 @@
         <v>119</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AA3" s="39" t="s">
         <v>649</v>
@@ -13938,10 +13999,10 @@
         <v>95</v>
       </c>
       <c r="BS3" s="42" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="BT3" s="42" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="BU3" s="42" t="s">
         <v>95</v>
@@ -13953,10 +14014,10 @@
         <v>357</v>
       </c>
       <c r="BX3" s="42" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="BY3" s="42" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="BZ3" s="4" t="s">
         <v>10</v>
@@ -13968,7 +14029,7 @@
         <v>107</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="CD3" s="3" t="s">
         <v>0</v>
@@ -14112,7 +14173,7 @@
         <v>29</v>
       </c>
       <c r="DY3" s="7" t="s">
-        <v>211</v>
+        <v>348</v>
       </c>
       <c r="DZ3" s="7" t="s">
         <v>46</v>
@@ -14142,7 +14203,7 @@
         <v>45</v>
       </c>
       <c r="EI3" s="7" t="s">
-        <v>989</v>
+        <v>1073</v>
       </c>
       <c r="EJ3" s="7" t="s">
         <v>134</v>
@@ -14196,7 +14257,7 @@
         <v>411</v>
       </c>
       <c r="FA3" s="18" t="s">
-        <v>990</v>
+        <v>1074</v>
       </c>
       <c r="FB3" s="19" t="s">
         <v>204</v>
@@ -14211,7 +14272,7 @@
         <v>205</v>
       </c>
       <c r="FF3" s="18" t="s">
-        <v>991</v>
+        <v>1075</v>
       </c>
       <c r="FG3" s="18" t="s">
         <v>119</v>
@@ -14262,7 +14323,7 @@
         <v>407</v>
       </c>
       <c r="FW3" s="3" t="s">
-        <v>992</v>
+        <v>1076</v>
       </c>
       <c r="FX3" s="1" t="s">
         <v>204</v>
@@ -14292,7 +14353,7 @@
         <v>702</v>
       </c>
       <c r="GG3" s="3" t="s">
-        <v>993</v>
+        <v>1077</v>
       </c>
       <c r="GH3" s="3" t="s">
         <v>119</v>
@@ -14346,10 +14407,10 @@
         <v>0</v>
       </c>
       <c r="GY3" s="3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="GZ3" s="3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="HA3" s="1">
         <v>785</v>
@@ -14457,7 +14518,7 @@
         <v>95</v>
       </c>
       <c r="IJ3" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="IK3" s="6" t="s">
         <v>119</v>
@@ -14810,7 +14871,7 @@
     </row>
     <row r="4" spans="1:360" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>723</v>
@@ -14831,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>345</v>
@@ -14843,7 +14904,7 @@
         <v>642</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>643</v>
@@ -14882,10 +14943,10 @@
         <v>119</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AA4" s="39" t="s">
         <v>649</v>
@@ -15020,10 +15081,10 @@
         <v>95</v>
       </c>
       <c r="BS4" s="42" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="BT4" s="42" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="BU4" s="42" t="s">
         <v>95</v>
@@ -15035,10 +15096,10 @@
         <v>357</v>
       </c>
       <c r="BX4" s="42" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="BY4" s="42" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="BZ4" s="4" t="s">
         <v>10</v>
@@ -15050,7 +15111,7 @@
         <v>107</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="CD4" s="3" t="s">
         <v>0</v>
@@ -15224,7 +15285,7 @@
         <v>45</v>
       </c>
       <c r="EI4" s="7" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="EJ4" s="7" t="s">
         <v>134</v>
@@ -15278,7 +15339,7 @@
         <v>411</v>
       </c>
       <c r="FA4" s="18" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="FB4" s="19" t="s">
         <v>204</v>
@@ -15293,7 +15354,7 @@
         <v>205</v>
       </c>
       <c r="FF4" s="18" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="FG4" s="18" t="s">
         <v>119</v>
@@ -15344,7 +15405,7 @@
         <v>407</v>
       </c>
       <c r="FW4" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="FX4" s="1" t="s">
         <v>204</v>
@@ -15374,7 +15435,7 @@
         <v>702</v>
       </c>
       <c r="GG4" s="3" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="GH4" s="3" t="s">
         <v>119</v>
@@ -15428,10 +15489,10 @@
         <v>0</v>
       </c>
       <c r="GY4" s="3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="GZ4" s="3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="HA4" s="1">
         <v>785</v>
@@ -15539,7 +15600,7 @@
         <v>95</v>
       </c>
       <c r="IJ4" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="IK4" s="6" t="s">
         <v>119</v>
@@ -15914,7 +15975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:RL2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17606,7 +17669,7 @@
     </row>
     <row r="2" spans="1:480" s="2" customFormat="1" ht="60">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>723</v>
@@ -17840,7 +17903,7 @@
         <v>416</v>
       </c>
       <c r="CA2" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="CB2" s="3" t="s">
         <v>0</v>
@@ -17900,7 +17963,7 @@
         <v>0</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>102</v>
+        <v>1052</v>
       </c>
       <c r="CV2" s="3" t="s">
         <v>35</v>
@@ -17948,7 +18011,7 @@
         <v>29</v>
       </c>
       <c r="DK2" s="7" t="s">
-        <v>706</v>
+        <v>348</v>
       </c>
       <c r="DL2" s="7" t="s">
         <v>46</v>
@@ -17978,7 +18041,7 @@
         <v>45</v>
       </c>
       <c r="DU2" s="7" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="DV2" s="7" t="s">
         <v>134</v>
@@ -18641,13 +18704,13 @@
         <v>1</v>
       </c>
       <c r="MH2" s="60" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="MI2" s="32" t="s">
         <v>494</v>
       </c>
       <c r="MJ2" s="32" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="MK2" s="32" t="s">
         <v>119</v>
@@ -18680,10 +18743,10 @@
         <v>495</v>
       </c>
       <c r="MU2" s="32" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="MV2" s="32" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="MW2" s="61" t="s">
         <v>166</v>
@@ -18731,7 +18794,7 @@
         <v>166</v>
       </c>
       <c r="NL2" s="59" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="NM2" s="2" t="s">
         <v>499</v>
@@ -18773,7 +18836,7 @@
         <v>514</v>
       </c>
       <c r="NZ2" s="59" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="OA2" s="2" t="s">
         <v>499</v>
@@ -19062,8 +19125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MT15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20304,7 +20367,7 @@
         <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>345</v>
@@ -20316,7 +20379,7 @@
         <v>642</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>643</v>
@@ -20355,10 +20418,10 @@
         <v>119</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="AA2" s="39" t="s">
         <v>649</v>
@@ -20493,7 +20556,7 @@
         <v>0</v>
       </c>
       <c r="BS2" s="42" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="BT2" s="42" t="s">
         <v>166</v>
@@ -20523,7 +20586,7 @@
         <v>355</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="CD2" s="3" t="s">
         <v>0</v>
@@ -20532,7 +20595,7 @@
         <v>158</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="CG2" s="3" t="s">
         <v>168</v>
@@ -20691,13 +20754,13 @@
         <v>45</v>
       </c>
       <c r="EG2" s="7" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="EH2" s="7" t="s">
         <v>134</v>
       </c>
       <c r="EI2" s="7" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="EJ2" s="7" t="s">
         <v>45</v>
@@ -20745,7 +20808,7 @@
         <v>406</v>
       </c>
       <c r="EY2" s="18" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ2" s="19" t="s">
         <v>244</v>
@@ -20760,7 +20823,7 @@
         <v>205</v>
       </c>
       <c r="FD2" s="18" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE2" s="18" t="s">
         <v>119</v>
@@ -20811,7 +20874,7 @@
         <v>407</v>
       </c>
       <c r="FU2" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV2" s="1" t="s">
         <v>204</v>
@@ -20838,10 +20901,10 @@
         <v>29</v>
       </c>
       <c r="GD2" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE2" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF2" s="3" t="s">
         <v>119</v>
@@ -20901,7 +20964,7 @@
         <v>711</v>
       </c>
       <c r="GY2" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ2" s="3" t="s">
         <v>29</v>
@@ -20910,10 +20973,10 @@
         <v>0</v>
       </c>
       <c r="HB2" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC2" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD2" s="3" t="s">
         <v>119</v>
@@ -21006,7 +21069,7 @@
         <v>95</v>
       </c>
       <c r="IH2" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II2" s="6" t="s">
         <v>119</v>
@@ -21599,7 +21662,7 @@
         <v>355</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="CD3" s="3" t="s">
         <v>0</v>
@@ -21608,7 +21671,7 @@
         <v>158</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="CG3" s="3" t="s">
         <v>168</v>
@@ -21767,10 +21830,10 @@
         <v>45</v>
       </c>
       <c r="EG3" s="7" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="EH3" s="7" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="EI3" s="7" t="s">
         <v>95</v>
@@ -21821,7 +21884,7 @@
         <v>406</v>
       </c>
       <c r="EY3" s="18" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="EZ3" s="19" t="s">
         <v>244</v>
@@ -21836,7 +21899,7 @@
         <v>205</v>
       </c>
       <c r="FD3" s="18" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="FE3" s="18" t="s">
         <v>119</v>
@@ -21887,7 +21950,7 @@
         <v>407</v>
       </c>
       <c r="FU3" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="FV3" s="1" t="s">
         <v>204</v>
@@ -21914,10 +21977,10 @@
         <v>29</v>
       </c>
       <c r="GD3" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="GE3" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="GF3" s="3" t="s">
         <v>119</v>
@@ -21977,7 +22040,7 @@
         <v>711</v>
       </c>
       <c r="GY3" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ3" s="3" t="s">
         <v>29</v>
@@ -21986,10 +22049,10 @@
         <v>0</v>
       </c>
       <c r="HB3" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="HC3" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="HD3" s="3" t="s">
         <v>119</v>
@@ -22082,7 +22145,7 @@
         <v>95</v>
       </c>
       <c r="IH3" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II3" s="6" t="s">
         <v>119</v>
@@ -22675,7 +22738,7 @@
         <v>355</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="CD4" s="3" t="s">
         <v>0</v>
@@ -22684,7 +22747,7 @@
         <v>158</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="CG4" s="3" t="s">
         <v>168</v>
@@ -22843,10 +22906,10 @@
         <v>45</v>
       </c>
       <c r="EG4" s="7" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="EH4" s="7" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="EI4" s="7" t="s">
         <v>95</v>
@@ -22897,7 +22960,7 @@
         <v>406</v>
       </c>
       <c r="EY4" s="18" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ4" s="19" t="s">
         <v>244</v>
@@ -22912,7 +22975,7 @@
         <v>205</v>
       </c>
       <c r="FD4" s="18" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE4" s="18" t="s">
         <v>119</v>
@@ -22963,7 +23026,7 @@
         <v>407</v>
       </c>
       <c r="FU4" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV4" s="1" t="s">
         <v>204</v>
@@ -22990,10 +23053,10 @@
         <v>29</v>
       </c>
       <c r="GD4" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE4" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF4" s="3" t="s">
         <v>119</v>
@@ -23053,7 +23116,7 @@
         <v>711</v>
       </c>
       <c r="GY4" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ4" s="3" t="s">
         <v>29</v>
@@ -23062,10 +23125,10 @@
         <v>0</v>
       </c>
       <c r="HB4" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC4" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD4" s="3" t="s">
         <v>119</v>
@@ -23158,7 +23221,7 @@
         <v>95</v>
       </c>
       <c r="IH4" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II4" s="6" t="s">
         <v>119</v>
@@ -23583,10 +23646,10 @@
         <v>119</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="AA5" s="39" t="s">
         <v>649</v>
@@ -23721,7 +23784,7 @@
         <v>1</v>
       </c>
       <c r="BS5" s="42" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="BT5" s="42" t="s">
         <v>166</v>
@@ -23751,7 +23814,7 @@
         <v>355</v>
       </c>
       <c r="CC5" s="3" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="CD5" s="3" t="s">
         <v>0</v>
@@ -23760,7 +23823,7 @@
         <v>158</v>
       </c>
       <c r="CF5" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="CG5" s="3" t="s">
         <v>168</v>
@@ -23919,10 +23982,10 @@
         <v>45</v>
       </c>
       <c r="EG5" s="7" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="EH5" s="7" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="EI5" s="7" t="s">
         <v>95</v>
@@ -23973,7 +24036,7 @@
         <v>406</v>
       </c>
       <c r="EY5" s="18" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ5" s="19" t="s">
         <v>244</v>
@@ -23988,7 +24051,7 @@
         <v>205</v>
       </c>
       <c r="FD5" s="18" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE5" s="18" t="s">
         <v>119</v>
@@ -24039,7 +24102,7 @@
         <v>407</v>
       </c>
       <c r="FU5" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV5" s="1" t="s">
         <v>204</v>
@@ -24066,10 +24129,10 @@
         <v>29</v>
       </c>
       <c r="GD5" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE5" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF5" s="3" t="s">
         <v>119</v>
@@ -24129,7 +24192,7 @@
         <v>711</v>
       </c>
       <c r="GY5" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ5" s="3" t="s">
         <v>29</v>
@@ -24138,10 +24201,10 @@
         <v>0</v>
       </c>
       <c r="HB5" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC5" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD5" s="3" t="s">
         <v>119</v>
@@ -24234,7 +24297,7 @@
         <v>95</v>
       </c>
       <c r="IH5" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II5" s="6" t="s">
         <v>119</v>
@@ -24827,7 +24890,7 @@
         <v>355</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="CD6" s="3" t="s">
         <v>0</v>
@@ -24836,7 +24899,7 @@
         <v>158</v>
       </c>
       <c r="CF6" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="CG6" s="3" t="s">
         <v>168</v>
@@ -24887,7 +24950,7 @@
         <v>121</v>
       </c>
       <c r="CW6" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="CX6" s="3" t="s">
         <v>21</v>
@@ -24995,10 +25058,10 @@
         <v>45</v>
       </c>
       <c r="EG6" s="7" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="EH6" s="7" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="EI6" s="7" t="s">
         <v>95</v>
@@ -25049,7 +25112,7 @@
         <v>406</v>
       </c>
       <c r="EY6" s="18" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ6" s="19" t="s">
         <v>244</v>
@@ -25064,7 +25127,7 @@
         <v>205</v>
       </c>
       <c r="FD6" s="18" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE6" s="18" t="s">
         <v>119</v>
@@ -25115,7 +25178,7 @@
         <v>407</v>
       </c>
       <c r="FU6" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV6" s="1" t="s">
         <v>204</v>
@@ -25142,10 +25205,10 @@
         <v>29</v>
       </c>
       <c r="GD6" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE6" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF6" s="3" t="s">
         <v>119</v>
@@ -25205,7 +25268,7 @@
         <v>711</v>
       </c>
       <c r="GY6" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ6" s="3" t="s">
         <v>29</v>
@@ -25214,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="HB6" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC6" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD6" s="3" t="s">
         <v>119</v>
@@ -25310,7 +25373,7 @@
         <v>95</v>
       </c>
       <c r="IH6" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II6" s="6" t="s">
         <v>119</v>
@@ -25903,7 +25966,7 @@
         <v>355</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="CD7" s="3" t="s">
         <v>0</v>
@@ -25912,7 +25975,7 @@
         <v>158</v>
       </c>
       <c r="CF7" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="CG7" s="3" t="s">
         <v>168</v>
@@ -25963,7 +26026,7 @@
         <v>121</v>
       </c>
       <c r="CW7" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="CX7" s="3" t="s">
         <v>21</v>
@@ -26071,10 +26134,10 @@
         <v>45</v>
       </c>
       <c r="EG7" s="7" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="EH7" s="7" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="EI7" s="7" t="s">
         <v>95</v>
@@ -26113,7 +26176,7 @@
         <v>296</v>
       </c>
       <c r="EU7" s="7" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="EV7" s="27" t="s">
         <v>95</v>
@@ -26125,7 +26188,7 @@
         <v>406</v>
       </c>
       <c r="EY7" s="18" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ7" s="19" t="s">
         <v>244</v>
@@ -26140,7 +26203,7 @@
         <v>205</v>
       </c>
       <c r="FD7" s="18" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE7" s="18" t="s">
         <v>119</v>
@@ -26191,7 +26254,7 @@
         <v>407</v>
       </c>
       <c r="FU7" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV7" s="1" t="s">
         <v>204</v>
@@ -26218,10 +26281,10 @@
         <v>29</v>
       </c>
       <c r="GD7" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE7" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF7" s="3" t="s">
         <v>119</v>
@@ -26281,7 +26344,7 @@
         <v>711</v>
       </c>
       <c r="GY7" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ7" s="3" t="s">
         <v>29</v>
@@ -26290,10 +26353,10 @@
         <v>0</v>
       </c>
       <c r="HB7" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC7" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD7" s="3" t="s">
         <v>119</v>
@@ -26386,7 +26449,7 @@
         <v>95</v>
       </c>
       <c r="IH7" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II7" s="6" t="s">
         <v>119</v>
@@ -26811,10 +26874,10 @@
         <v>119</v>
       </c>
       <c r="Y8" s="46" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="Z8" s="46" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="AA8" s="71" t="s">
         <v>649</v>
@@ -26949,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="BS8" s="50" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="BT8" s="50" t="s">
         <v>166</v>
@@ -26979,7 +27042,7 @@
         <v>355</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="CD8" s="3" t="s">
         <v>0</v>
@@ -26988,7 +27051,7 @@
         <v>158</v>
       </c>
       <c r="CF8" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="CG8" s="46" t="s">
         <v>168</v>
@@ -27147,10 +27210,10 @@
         <v>45</v>
       </c>
       <c r="EG8" s="7" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="EH8" s="7" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="EI8" s="7" t="s">
         <v>95</v>
@@ -27201,7 +27264,7 @@
         <v>406</v>
       </c>
       <c r="EY8" s="46" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ8" s="51" t="s">
         <v>244</v>
@@ -27216,7 +27279,7 @@
         <v>205</v>
       </c>
       <c r="FD8" s="46" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE8" s="46" t="s">
         <v>119</v>
@@ -27267,7 +27330,7 @@
         <v>407</v>
       </c>
       <c r="FU8" s="46" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV8" s="51" t="s">
         <v>204</v>
@@ -27294,10 +27357,10 @@
         <v>29</v>
       </c>
       <c r="GD8" s="46" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE8" s="46" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF8" s="46" t="s">
         <v>119</v>
@@ -27357,7 +27420,7 @@
         <v>711</v>
       </c>
       <c r="GY8" s="51" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ8" s="46" t="s">
         <v>29</v>
@@ -27366,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="HB8" s="46" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC8" s="46" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD8" s="46" t="s">
         <v>119</v>
@@ -27462,7 +27525,7 @@
         <v>95</v>
       </c>
       <c r="IH8" s="6" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II8" s="6" t="s">
         <v>119</v>
@@ -28055,7 +28118,7 @@
         <v>355</v>
       </c>
       <c r="CC9" s="3" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="CD9" s="3" t="s">
         <v>0</v>
@@ -28064,7 +28127,7 @@
         <v>158</v>
       </c>
       <c r="CF9" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="CG9" s="3" t="s">
         <v>168</v>
@@ -28223,10 +28286,10 @@
         <v>45</v>
       </c>
       <c r="EG9" s="7" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="EH9" s="7" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="EI9" s="7" t="s">
         <v>95</v>
@@ -28277,7 +28340,7 @@
         <v>406</v>
       </c>
       <c r="EY9" s="18" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ9" s="19" t="s">
         <v>244</v>
@@ -28292,7 +28355,7 @@
         <v>205</v>
       </c>
       <c r="FD9" s="18" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE9" s="18" t="s">
         <v>119</v>
@@ -28343,7 +28406,7 @@
         <v>407</v>
       </c>
       <c r="FU9" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV9" s="1" t="s">
         <v>204</v>
@@ -28370,10 +28433,10 @@
         <v>29</v>
       </c>
       <c r="GD9" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE9" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF9" s="3" t="s">
         <v>119</v>
@@ -28433,7 +28496,7 @@
         <v>711</v>
       </c>
       <c r="GY9" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ9" s="3" t="s">
         <v>29</v>
@@ -28442,10 +28505,10 @@
         <v>0</v>
       </c>
       <c r="HB9" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC9" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD9" s="3" t="s">
         <v>119</v>
@@ -28538,7 +28601,7 @@
         <v>95</v>
       </c>
       <c r="IH9" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II9" s="6" t="s">
         <v>119</v>
@@ -29131,7 +29194,7 @@
         <v>355</v>
       </c>
       <c r="CC10" s="3" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="CD10" s="3" t="s">
         <v>0</v>
@@ -29140,7 +29203,7 @@
         <v>158</v>
       </c>
       <c r="CF10" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="CG10" s="3" t="s">
         <v>168</v>
@@ -29299,10 +29362,10 @@
         <v>45</v>
       </c>
       <c r="EG10" s="7" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="EH10" s="7" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="EI10" s="7" t="s">
         <v>95</v>
@@ -29353,7 +29416,7 @@
         <v>406</v>
       </c>
       <c r="EY10" s="18" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="EZ10" s="19" t="s">
         <v>244</v>
@@ -29368,7 +29431,7 @@
         <v>205</v>
       </c>
       <c r="FD10" s="18" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE10" s="18" t="s">
         <v>119</v>
@@ -29419,7 +29482,7 @@
         <v>407</v>
       </c>
       <c r="FU10" s="3" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="FV10" s="1" t="s">
         <v>204</v>
@@ -29446,10 +29509,10 @@
         <v>29</v>
       </c>
       <c r="GD10" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE10" s="3" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="GF10" s="3" t="s">
         <v>119</v>
@@ -29509,7 +29572,7 @@
         <v>711</v>
       </c>
       <c r="GY10" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ10" s="3" t="s">
         <v>29</v>
@@ -29518,10 +29581,10 @@
         <v>95</v>
       </c>
       <c r="HB10" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC10" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD10" s="3" t="s">
         <v>119</v>
@@ -29614,7 +29677,7 @@
         <v>95</v>
       </c>
       <c r="IH10" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II10" s="6" t="s">
         <v>119</v>
@@ -29967,7 +30030,7 @@
     </row>
     <row r="11" spans="1:358" s="2" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>723</v>
@@ -30207,7 +30270,7 @@
         <v>355</v>
       </c>
       <c r="CC11" s="3" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="CD11" s="3" t="s">
         <v>0</v>
@@ -30216,7 +30279,7 @@
         <v>158</v>
       </c>
       <c r="CF11" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="CG11" s="3" t="s">
         <v>168</v>
@@ -30375,10 +30438,10 @@
         <v>45</v>
       </c>
       <c r="EG11" s="7" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="EH11" s="7" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="EI11" s="7" t="s">
         <v>0</v>
@@ -30429,7 +30492,7 @@
         <v>406</v>
       </c>
       <c r="EY11" s="18" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="EZ11" s="19" t="s">
         <v>244</v>
@@ -30444,7 +30507,7 @@
         <v>205</v>
       </c>
       <c r="FD11" s="18" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="FE11" s="18" t="s">
         <v>119</v>
@@ -30495,7 +30558,7 @@
         <v>407</v>
       </c>
       <c r="FU11" s="3" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="FV11" s="1" t="s">
         <v>204</v>
@@ -30522,10 +30585,10 @@
         <v>29</v>
       </c>
       <c r="GD11" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE11" s="3" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="GF11" s="3" t="s">
         <v>119</v>
@@ -30585,7 +30648,7 @@
         <v>711</v>
       </c>
       <c r="GY11" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ11" s="3" t="s">
         <v>29</v>
@@ -30594,10 +30657,10 @@
         <v>95</v>
       </c>
       <c r="HB11" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC11" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD11" s="3" t="s">
         <v>119</v>
@@ -30690,7 +30753,7 @@
         <v>95</v>
       </c>
       <c r="IH11" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II11" s="6" t="s">
         <v>119</v>
@@ -31283,7 +31346,7 @@
         <v>355</v>
       </c>
       <c r="CC12" s="3" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="CD12" s="3" t="s">
         <v>0</v>
@@ -31292,7 +31355,7 @@
         <v>158</v>
       </c>
       <c r="CF12" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="CG12" s="3" t="s">
         <v>168</v>
@@ -31451,10 +31514,10 @@
         <v>45</v>
       </c>
       <c r="EG12" s="7" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="EH12" s="7" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="EI12" s="7" t="s">
         <v>95</v>
@@ -31505,7 +31568,7 @@
         <v>406</v>
       </c>
       <c r="EY12" s="18" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="EZ12" s="19" t="s">
         <v>244</v>
@@ -31520,7 +31583,7 @@
         <v>205</v>
       </c>
       <c r="FD12" s="18" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="FE12" s="18" t="s">
         <v>119</v>
@@ -31571,7 +31634,7 @@
         <v>407</v>
       </c>
       <c r="FU12" s="3" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="FV12" s="1" t="s">
         <v>204</v>
@@ -31598,10 +31661,10 @@
         <v>29</v>
       </c>
       <c r="GD12" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE12" s="3" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="GF12" s="3" t="s">
         <v>119</v>
@@ -31661,7 +31724,7 @@
         <v>711</v>
       </c>
       <c r="GY12" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ12" s="3" t="s">
         <v>29</v>
@@ -31670,10 +31733,10 @@
         <v>647</v>
       </c>
       <c r="HB12" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC12" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD12" s="3" t="s">
         <v>119</v>
@@ -31766,7 +31829,7 @@
         <v>95</v>
       </c>
       <c r="IH12" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II12" s="6" t="s">
         <v>119</v>
@@ -32359,7 +32422,7 @@
         <v>355</v>
       </c>
       <c r="CC13" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="CD13" s="3" t="s">
         <v>0</v>
@@ -32368,7 +32431,7 @@
         <v>158</v>
       </c>
       <c r="CF13" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="CG13" s="46" t="s">
         <v>168</v>
@@ -32410,7 +32473,7 @@
         <v>165</v>
       </c>
       <c r="CT13" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="CU13" s="46" t="s">
         <v>22</v>
@@ -32527,10 +32590,10 @@
         <v>45</v>
       </c>
       <c r="EG13" s="7" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="EH13" s="7" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="EI13" s="7" t="s">
         <v>95</v>
@@ -32581,7 +32644,7 @@
         <v>406</v>
       </c>
       <c r="EY13" s="46" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ13" s="51" t="s">
         <v>244</v>
@@ -32596,7 +32659,7 @@
         <v>205</v>
       </c>
       <c r="FD13" s="46" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE13" s="46" t="s">
         <v>119</v>
@@ -32647,7 +32710,7 @@
         <v>407</v>
       </c>
       <c r="FU13" s="46" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV13" s="51" t="s">
         <v>204</v>
@@ -32674,10 +32737,10 @@
         <v>29</v>
       </c>
       <c r="GD13" s="46" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE13" s="46" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF13" s="46" t="s">
         <v>119</v>
@@ -32737,7 +32800,7 @@
         <v>711</v>
       </c>
       <c r="GY13" s="51" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ13" s="46" t="s">
         <v>29</v>
@@ -32746,10 +32809,10 @@
         <v>0</v>
       </c>
       <c r="HB13" s="46" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC13" s="46" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD13" s="46" t="s">
         <v>119</v>
@@ -32842,7 +32905,7 @@
         <v>95</v>
       </c>
       <c r="IH13" s="6" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II13" s="6" t="s">
         <v>119</v>
@@ -33435,7 +33498,7 @@
         <v>355</v>
       </c>
       <c r="CC14" s="3" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="CD14" s="3" t="s">
         <v>0</v>
@@ -33444,7 +33507,7 @@
         <v>158</v>
       </c>
       <c r="CF14" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="CG14" s="3" t="s">
         <v>168</v>
@@ -33486,7 +33549,7 @@
         <v>165</v>
       </c>
       <c r="CT14" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="CU14" s="3" t="s">
         <v>22</v>
@@ -33603,10 +33666,10 @@
         <v>45</v>
       </c>
       <c r="EG14" s="7" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="EH14" s="7" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="EI14" s="7" t="s">
         <v>95</v>
@@ -33657,7 +33720,7 @@
         <v>406</v>
       </c>
       <c r="EY14" s="18" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ14" s="19" t="s">
         <v>244</v>
@@ -33672,7 +33735,7 @@
         <v>205</v>
       </c>
       <c r="FD14" s="18" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE14" s="18" t="s">
         <v>119</v>
@@ -33723,7 +33786,7 @@
         <v>407</v>
       </c>
       <c r="FU14" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV14" s="1" t="s">
         <v>204</v>
@@ -33750,10 +33813,10 @@
         <v>29</v>
       </c>
       <c r="GD14" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE14" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF14" s="3" t="s">
         <v>119</v>
@@ -33813,7 +33876,7 @@
         <v>711</v>
       </c>
       <c r="GY14" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ14" s="3" t="s">
         <v>29</v>
@@ -33822,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="HB14" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC14" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD14" s="3" t="s">
         <v>119</v>
@@ -33918,7 +33981,7 @@
         <v>95</v>
       </c>
       <c r="IH14" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II14" s="6" t="s">
         <v>119</v>
@@ -34511,7 +34574,7 @@
         <v>355</v>
       </c>
       <c r="CC15" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="CD15" s="3" t="s">
         <v>0</v>
@@ -34520,7 +34583,7 @@
         <v>158</v>
       </c>
       <c r="CF15" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="CG15" s="3" t="s">
         <v>168</v>
@@ -34562,7 +34625,7 @@
         <v>165</v>
       </c>
       <c r="CT15" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="CU15" s="3" t="s">
         <v>22</v>
@@ -34679,10 +34742,10 @@
         <v>45</v>
       </c>
       <c r="EG15" s="7" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="EH15" s="7" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="EI15" s="7" t="s">
         <v>0</v>
@@ -34733,7 +34796,7 @@
         <v>406</v>
       </c>
       <c r="EY15" s="18" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="EZ15" s="19" t="s">
         <v>244</v>
@@ -34748,7 +34811,7 @@
         <v>205</v>
       </c>
       <c r="FD15" s="18" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="FE15" s="18" t="s">
         <v>119</v>
@@ -34799,7 +34862,7 @@
         <v>407</v>
       </c>
       <c r="FU15" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="FV15" s="1" t="s">
         <v>204</v>
@@ -34826,10 +34889,10 @@
         <v>29</v>
       </c>
       <c r="GD15" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GE15" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="GF15" s="3" t="s">
         <v>119</v>
@@ -34889,7 +34952,7 @@
         <v>711</v>
       </c>
       <c r="GY15" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="GZ15" s="3" t="s">
         <v>29</v>
@@ -34898,10 +34961,10 @@
         <v>0</v>
       </c>
       <c r="HB15" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="HC15" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="HD15" s="3" t="s">
         <v>119</v>
@@ -34994,7 +35057,7 @@
         <v>95</v>
       </c>
       <c r="IH15" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="II15" s="6" t="s">
         <v>119</v>
@@ -35411,11 +35474,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MQ5"/>
+  <dimension ref="A1:MQ6"/>
   <sheetViews>
-    <sheetView topLeftCell="MM1" workbookViewId="0">
-      <selection sqref="A1:MQ5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -35491,7 +35552,7 @@
     <col min="73" max="73" width="34" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.7109375" customWidth="1"/>
+    <col min="76" max="76" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="21.28515625" customWidth="1"/>
     <col min="79" max="79" width="28.5703125" customWidth="1"/>
@@ -35574,7 +35635,7 @@
     <col min="171" max="171" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="20.140625" customWidth="1"/>
     <col min="177" max="177" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -35591,6 +35652,7 @@
     <col min="191" max="191" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="24" customWidth="1"/>
     <col min="193" max="193" width="21.85546875" customWidth="1"/>
+    <col min="198" max="198" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="41" bestFit="1" customWidth="1"/>
     <col min="201" max="201" width="37.7109375" bestFit="1" customWidth="1"/>
@@ -36786,13 +36848,13 @@
         <v>95</v>
       </c>
       <c r="W2" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="X2" s="46" t="s">
         <v>119</v>
       </c>
       <c r="Y2" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="Z2" s="46" t="s">
         <v>119</v>
@@ -36957,10 +37019,10 @@
         <v>7</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="CD2" s="3" t="s">
         <v>0</v>
@@ -37065,10 +37127,10 @@
         <v>377</v>
       </c>
       <c r="DL2" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DM2" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DN2" s="7" t="s">
         <v>95</v>
@@ -37176,7 +37238,7 @@
         <v>406</v>
       </c>
       <c r="EW2" s="18" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="EX2" s="19" t="s">
         <v>204</v>
@@ -37191,7 +37253,7 @@
         <v>205</v>
       </c>
       <c r="FB2" s="18" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="FC2" s="18" t="s">
         <v>119</v>
@@ -37239,7 +37301,7 @@
         <v>407</v>
       </c>
       <c r="FR2" s="3" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="FS2" s="1" t="s">
         <v>204</v>
@@ -37266,10 +37328,10 @@
         <v>29</v>
       </c>
       <c r="GA2" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="GB2" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="GC2" s="3" t="s">
         <v>119</v>
@@ -37323,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="GT2" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="GU2" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="GV2" s="1">
         <v>785</v>
@@ -37338,10 +37400,10 @@
         <v>95</v>
       </c>
       <c r="GY2" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="GZ2" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="HA2" s="3" t="s">
         <v>119</v>
@@ -37851,13 +37913,13 @@
         <v>95</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="X3" s="46" t="s">
         <v>119</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="Z3" s="46" t="s">
         <v>119</v>
@@ -38022,10 +38084,10 @@
         <v>568</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="CD3" s="3" t="s">
         <v>0</v>
@@ -38130,10 +38192,10 @@
         <v>377</v>
       </c>
       <c r="DL3" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DM3" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DN3" s="7" t="s">
         <v>95</v>
@@ -38241,7 +38303,7 @@
         <v>406</v>
       </c>
       <c r="EW3" s="18" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="EX3" s="19" t="s">
         <v>204</v>
@@ -38256,7 +38318,7 @@
         <v>205</v>
       </c>
       <c r="FB3" s="18" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="FC3" s="18" t="s">
         <v>119</v>
@@ -38304,7 +38366,7 @@
         <v>407</v>
       </c>
       <c r="FR3" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="FS3" s="1" t="s">
         <v>204</v>
@@ -38331,10 +38393,10 @@
         <v>29</v>
       </c>
       <c r="GA3" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="GB3" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="GC3" s="3" t="s">
         <v>119</v>
@@ -38388,10 +38450,10 @@
         <v>0</v>
       </c>
       <c r="GT3" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="GU3" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="GV3" s="1">
         <v>785</v>
@@ -38403,10 +38465,10 @@
         <v>95</v>
       </c>
       <c r="GY3" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="GZ3" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="HA3" s="3" t="s">
         <v>119</v>
@@ -38871,7 +38933,7 @@
         <v>95</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>345</v>
@@ -38883,7 +38945,7 @@
         <v>642</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>643</v>
@@ -38916,13 +38978,13 @@
         <v>0</v>
       </c>
       <c r="W4" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="X4" s="46" t="s">
         <v>119</v>
       </c>
       <c r="Y4" s="46" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="Z4" s="46" t="s">
         <v>119</v>
@@ -39060,10 +39122,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="50" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="BT4" s="50" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="BU4" s="50" t="s">
         <v>0</v>
@@ -39075,10 +39137,10 @@
         <v>357</v>
       </c>
       <c r="BX4" s="50" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="BY4" s="50" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="BZ4" s="4" t="s">
         <v>10</v>
@@ -39087,10 +39149,10 @@
         <v>7</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="CD4" s="3" t="s">
         <v>0</v>
@@ -39195,10 +39257,10 @@
         <v>377</v>
       </c>
       <c r="DL4" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DM4" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DN4" s="7" t="s">
         <v>95</v>
@@ -39306,7 +39368,7 @@
         <v>406</v>
       </c>
       <c r="EW4" s="18" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="EX4" s="19" t="s">
         <v>204</v>
@@ -39321,7 +39383,7 @@
         <v>205</v>
       </c>
       <c r="FB4" s="18" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="FC4" s="18" t="s">
         <v>119</v>
@@ -39369,7 +39431,7 @@
         <v>407</v>
       </c>
       <c r="FR4" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="FS4" s="1" t="s">
         <v>204</v>
@@ -39396,10 +39458,10 @@
         <v>29</v>
       </c>
       <c r="GA4" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="GB4" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="GC4" s="3" t="s">
         <v>119</v>
@@ -39453,10 +39515,10 @@
         <v>0</v>
       </c>
       <c r="GT4" s="3" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="GU4" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="GV4" s="1">
         <v>785</v>
@@ -39468,10 +39530,10 @@
         <v>95</v>
       </c>
       <c r="GY4" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="GZ4" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="HA4" s="3" t="s">
         <v>119</v>
@@ -39936,7 +39998,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>345</v>
@@ -39948,7 +40010,7 @@
         <v>642</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>643</v>
@@ -39981,13 +40043,13 @@
         <v>95</v>
       </c>
       <c r="W5" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="X5" s="46" t="s">
         <v>119</v>
       </c>
       <c r="Y5" s="46" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="Z5" s="46" t="s">
         <v>119</v>
@@ -40125,10 +40187,10 @@
         <v>95</v>
       </c>
       <c r="BS5" s="50" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="BT5" s="50" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="BU5" s="50" t="s">
         <v>95</v>
@@ -40140,10 +40202,10 @@
         <v>357</v>
       </c>
       <c r="BX5" s="50" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="BY5" s="50" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="BZ5" s="4" t="s">
         <v>10</v>
@@ -40152,10 +40214,10 @@
         <v>7</v>
       </c>
       <c r="CB5" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="CC5" s="3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="CD5" s="3" t="s">
         <v>0</v>
@@ -40215,7 +40277,7 @@
         <v>121</v>
       </c>
       <c r="CW5" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="CX5" s="3" t="s">
         <v>21</v>
@@ -40260,10 +40322,10 @@
         <v>377</v>
       </c>
       <c r="DL5" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DM5" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DN5" s="7" t="s">
         <v>95</v>
@@ -40317,7 +40379,7 @@
         <v>45</v>
       </c>
       <c r="EE5" s="7" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="EF5" s="7" t="s">
         <v>134</v>
@@ -40371,7 +40433,7 @@
         <v>406</v>
       </c>
       <c r="EW5" s="18" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="EX5" s="19" t="s">
         <v>204</v>
@@ -40386,7 +40448,7 @@
         <v>205</v>
       </c>
       <c r="FB5" s="18" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="FC5" s="18" t="s">
         <v>119</v>
@@ -40434,7 +40496,7 @@
         <v>407</v>
       </c>
       <c r="FR5" s="3" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="FS5" s="1" t="s">
         <v>204</v>
@@ -40461,10 +40523,10 @@
         <v>29</v>
       </c>
       <c r="GA5" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="GB5" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="GC5" s="3" t="s">
         <v>119</v>
@@ -40518,10 +40580,10 @@
         <v>0</v>
       </c>
       <c r="GT5" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="GU5" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="GV5" s="1">
         <v>785</v>
@@ -40533,10 +40595,10 @@
         <v>95</v>
       </c>
       <c r="GY5" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="GZ5" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="HA5" s="3" t="s">
         <v>119</v>
@@ -40975,6 +41037,1071 @@
         <v>0</v>
       </c>
       <c r="MQ5" s="65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:355" s="2" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>675</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="U6" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="46" t="s">
+        <v>1056</v>
+      </c>
+      <c r="X6" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y6" s="46" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Z6" s="46" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AA6" s="39" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB6" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="AC6" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD6" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE6" s="39" t="s">
+        <v>652</v>
+      </c>
+      <c r="AF6" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="AG6" s="39" t="s">
+        <v>654</v>
+      </c>
+      <c r="AH6" s="39" t="s">
+        <v>655</v>
+      </c>
+      <c r="AI6" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="AJ6" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="AL6" s="39" t="s">
+        <v>659</v>
+      </c>
+      <c r="AM6" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN6" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="AO6" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="AP6" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="AQ6" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR6" s="40" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS6" s="41" t="s">
+        <v>666</v>
+      </c>
+      <c r="AT6" s="40" t="s">
+        <v>667</v>
+      </c>
+      <c r="AU6" s="40" t="s">
+        <v>668</v>
+      </c>
+      <c r="AV6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW6" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX6" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB6" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="BC6" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="BD6" s="40" t="s">
+        <v>669</v>
+      </c>
+      <c r="BE6" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="BG6" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH6" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="BI6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ6" s="40" t="s">
+        <v>665</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="BL6" s="41" t="s">
+        <v>666</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="BN6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="BR6" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS6" s="50" t="s">
+        <v>680</v>
+      </c>
+      <c r="BT6" s="50" t="s">
+        <v>681</v>
+      </c>
+      <c r="BU6" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW6" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="BX6" s="50" t="s">
+        <v>1059</v>
+      </c>
+      <c r="BY6" s="50" t="s">
+        <v>1060</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB6" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="CC6" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="CF6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CL6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="CM6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="CN6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="CO6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="CS6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="CU6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="CY6" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ6" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="DA6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="DB6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="DE6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF6" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="DG6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="DI6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="DJ6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="DL6" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="DM6" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="DN6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="DO6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="DQ6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="DS6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="DT6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="DU6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DV6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="DW6" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="DX6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="DZ6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="EA6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="EB6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="EE6" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="EF6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="EH6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="EI6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="EJ6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="EL6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="EM6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="EN6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="EO6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="EP6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="EQ6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="ER6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="ES6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="ET6" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="EU6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV6" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="EW6" s="18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="EX6" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="EY6" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="EZ6" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="FA6" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="FB6" s="18" t="s">
+        <v>1064</v>
+      </c>
+      <c r="FC6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="FD6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="FE6" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="FF6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="FG6" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="FH6" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="FI6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="FJ6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="FK6" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="FM6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="FO6" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="FP6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="FQ6" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="FR6" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="FS6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="FT6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="FU6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="FV6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="FW6" s="1">
+        <v>234</v>
+      </c>
+      <c r="FX6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="FY6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="FZ6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="GA6" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="GB6" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="GC6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="GD6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GE6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="GF6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="GG6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="GH6" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="GI6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="GJ6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="GK6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="GL6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="GM6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="GN6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="GO6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="GP6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="GQ6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="GR6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="GS6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="GU6" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="GV6" s="1">
+        <v>785</v>
+      </c>
+      <c r="GW6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="GX6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="GY6" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="GZ6" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="HA6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="HB6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="HC6" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="HD6" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="HE6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="HF6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="HG6" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="HH6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="HI6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="HJ6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="HK6" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="HL6" s="13">
+        <v>10.25</v>
+      </c>
+      <c r="HM6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="HN6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="HO6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="HP6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="HQ6" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="HR6" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="HS6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="HT6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="HU6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="HV6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="HW6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="HX6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="HY6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="HZ6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="IA6" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="IB6" s="13">
+        <v>112</v>
+      </c>
+      <c r="IC6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="ID6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="IE6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="IF6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="IG6" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="IH6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="II6" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="IJ6" s="6">
+        <v>876</v>
+      </c>
+      <c r="IK6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="IL6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="IM6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="IN6" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="IO6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="IP6" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="IQ6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="IR6" s="6">
+        <v>2125</v>
+      </c>
+      <c r="IS6" s="6">
+        <v>65854523</v>
+      </c>
+      <c r="IT6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="IU6" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="IV6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="IW6" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="IX6" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="IY6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="IZ6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="JA6" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="JB6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="JC6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="JD6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="JE6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="JF6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="JG6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="JH6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="JI6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="JJ6" s="15">
+        <v>9751235</v>
+      </c>
+      <c r="JK6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="JL6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="JM6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="JN6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="JO6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="JP6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="JQ6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="JR6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="JS6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="JT6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="JU6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="JV6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="JW6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="JX6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="JY6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="JZ6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="KA6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="KB6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="KC6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="KD6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="KE6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="KF6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="KG6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="KH6" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="KI6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KJ6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KK6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="KL6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KM6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KN6" s="6"/>
+      <c r="KO6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KP6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KQ6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KR6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KS6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KT6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KU6" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="KV6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="KW6" s="6">
+        <v>6788</v>
+      </c>
+      <c r="KX6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="KY6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="KZ6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LA6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LB6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LC6" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="LD6" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="LE6" s="6">
+        <v>67</v>
+      </c>
+      <c r="LF6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LG6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LH6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LI6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LJ6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LK6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LL6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LM6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LN6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LO6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="LP6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="LQ6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="LR6" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="LS6" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="LT6" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="LU6" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="LV6" s="24">
+        <v>1111</v>
+      </c>
+      <c r="LW6" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="LX6" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="LY6" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="LZ6" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="MA6" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="MB6" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="MC6" s="65" t="s">
+        <v>801</v>
+      </c>
+      <c r="MD6" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="ME6" s="65" t="s">
+        <v>802</v>
+      </c>
+      <c r="MF6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="MG6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="MH6" s="65" t="s">
+        <v>801</v>
+      </c>
+      <c r="MI6" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="MJ6" s="65" t="s">
+        <v>802</v>
+      </c>
+      <c r="MK6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="ML6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="MM6" s="65" t="s">
+        <v>801</v>
+      </c>
+      <c r="MN6" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="MO6" s="65" t="s">
+        <v>802</v>
+      </c>
+      <c r="MP6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="MQ6" s="65" t="s">
         <v>0</v>
       </c>
     </row>
@@ -40996,9 +42123,13 @@
     <hyperlink ref="JI5" r:id="rId14"/>
     <hyperlink ref="P5" r:id="rId15"/>
     <hyperlink ref="AK5" r:id="rId16" display="mailto:NGINUser_1306@gmail.com"/>
+    <hyperlink ref="CE6" r:id="rId17"/>
+    <hyperlink ref="JI6" r:id="rId18"/>
+    <hyperlink ref="P6" r:id="rId19"/>
+    <hyperlink ref="AK6" r:id="rId20" display="mailto:NGINUser_1306@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -41006,8 +42137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HV1" workbookViewId="0">
-      <selection activeCell="IF1" sqref="IF1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42120,7 +43251,7 @@
     </row>
     <row r="2" spans="1:355">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>723</v>
@@ -42186,13 +43317,13 @@
         <v>95</v>
       </c>
       <c r="W2" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="X2" s="46" t="s">
         <v>119</v>
       </c>
       <c r="Y2" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="Z2" s="46" t="s">
         <v>119</v>
@@ -42357,10 +43488,10 @@
         <v>7</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="CD2" s="3" t="s">
         <v>0</v>
@@ -42465,10 +43596,10 @@
         <v>377</v>
       </c>
       <c r="DL2" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DM2" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DN2" s="7" t="s">
         <v>95</v>
@@ -42522,7 +43653,7 @@
         <v>45</v>
       </c>
       <c r="EE2" s="7" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="EF2" s="7" t="s">
         <v>134</v>
@@ -42576,7 +43707,7 @@
         <v>406</v>
       </c>
       <c r="EW2" s="18" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="EX2" s="19" t="s">
         <v>204</v>
@@ -42591,7 +43722,7 @@
         <v>205</v>
       </c>
       <c r="FB2" s="18" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="FC2" s="18" t="s">
         <v>119</v>
@@ -42639,7 +43770,7 @@
         <v>407</v>
       </c>
       <c r="FR2" s="3" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="FS2" s="1" t="s">
         <v>204</v>
@@ -42666,10 +43797,10 @@
         <v>29</v>
       </c>
       <c r="GA2" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="GB2" s="3" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="GC2" s="3" t="s">
         <v>119</v>
@@ -42723,10 +43854,10 @@
         <v>0</v>
       </c>
       <c r="GT2" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="GU2" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="GV2" s="1">
         <v>785</v>
@@ -42738,10 +43869,10 @@
         <v>95</v>
       </c>
       <c r="GY2" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="GZ2" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="HA2" s="3" t="s">
         <v>119</v>
@@ -43251,13 +44382,13 @@
         <v>95</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="X3" s="46" t="s">
         <v>119</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="Z3" s="46" t="s">
         <v>119</v>
@@ -43422,10 +44553,10 @@
         <v>568</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="CD3" s="3" t="s">
         <v>0</v>
@@ -43530,10 +44661,10 @@
         <v>377</v>
       </c>
       <c r="DL3" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DM3" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DN3" s="7" t="s">
         <v>95</v>
@@ -43641,7 +44772,7 @@
         <v>406</v>
       </c>
       <c r="EW3" s="18" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="EX3" s="19" t="s">
         <v>204</v>
@@ -43656,7 +44787,7 @@
         <v>205</v>
       </c>
       <c r="FB3" s="18" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="FC3" s="18" t="s">
         <v>119</v>
@@ -43704,7 +44835,7 @@
         <v>407</v>
       </c>
       <c r="FR3" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="FS3" s="1" t="s">
         <v>204</v>
@@ -43731,10 +44862,10 @@
         <v>29</v>
       </c>
       <c r="GA3" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="GB3" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="GC3" s="3" t="s">
         <v>119</v>
@@ -43788,10 +44919,10 @@
         <v>0</v>
       </c>
       <c r="GT3" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="GU3" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="GV3" s="1">
         <v>785</v>
@@ -43803,10 +44934,10 @@
         <v>95</v>
       </c>
       <c r="GY3" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="GZ3" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="HA3" s="3" t="s">
         <v>119</v>
@@ -44271,7 +45402,7 @@
         <v>95</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>345</v>
@@ -44283,7 +45414,7 @@
         <v>642</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>643</v>
@@ -44316,13 +45447,13 @@
         <v>0</v>
       </c>
       <c r="W4" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="X4" s="46" t="s">
         <v>119</v>
       </c>
       <c r="Y4" s="46" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="Z4" s="46" t="s">
         <v>119</v>
@@ -44460,10 +45591,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="50" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="BT4" s="50" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="BU4" s="50" t="s">
         <v>0</v>
@@ -44475,10 +45606,10 @@
         <v>357</v>
       </c>
       <c r="BX4" s="50" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="BY4" s="50" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="BZ4" s="4" t="s">
         <v>10</v>
@@ -44487,10 +45618,10 @@
         <v>7</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="CD4" s="3" t="s">
         <v>0</v>
@@ -44595,10 +45726,10 @@
         <v>377</v>
       </c>
       <c r="DL4" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DM4" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DN4" s="7" t="s">
         <v>95</v>
@@ -44706,7 +45837,7 @@
         <v>406</v>
       </c>
       <c r="EW4" s="18" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="EX4" s="19" t="s">
         <v>204</v>
@@ -44721,7 +45852,7 @@
         <v>205</v>
       </c>
       <c r="FB4" s="18" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="FC4" s="18" t="s">
         <v>119</v>
@@ -44769,7 +45900,7 @@
         <v>407</v>
       </c>
       <c r="FR4" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="FS4" s="1" t="s">
         <v>204</v>
@@ -44796,10 +45927,10 @@
         <v>29</v>
       </c>
       <c r="GA4" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="GB4" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="GC4" s="3" t="s">
         <v>119</v>
@@ -44853,10 +45984,10 @@
         <v>0</v>
       </c>
       <c r="GT4" s="3" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="GU4" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="GV4" s="1">
         <v>785</v>
@@ -44868,10 +45999,10 @@
         <v>95</v>
       </c>
       <c r="GY4" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="GZ4" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="HA4" s="3" t="s">
         <v>119</v>
@@ -45336,7 +46467,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>345</v>
@@ -45348,7 +46479,7 @@
         <v>642</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="M5" s="37" t="s">
         <v>643</v>
@@ -45381,13 +46512,13 @@
         <v>95</v>
       </c>
       <c r="W5" s="46" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="X5" s="46" t="s">
         <v>119</v>
       </c>
       <c r="Y5" s="46" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="Z5" s="46" t="s">
         <v>119</v>
@@ -45525,10 +46656,10 @@
         <v>95</v>
       </c>
       <c r="BS5" s="50" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="BT5" s="50" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="BU5" s="50" t="s">
         <v>95</v>
@@ -45540,10 +46671,10 @@
         <v>357</v>
       </c>
       <c r="BX5" s="50" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="BY5" s="50" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="BZ5" s="4" t="s">
         <v>10</v>
@@ -45552,10 +46683,10 @@
         <v>7</v>
       </c>
       <c r="CB5" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="CC5" s="3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="CD5" s="3" t="s">
         <v>0</v>
@@ -45615,7 +46746,7 @@
         <v>121</v>
       </c>
       <c r="CW5" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="CX5" s="3" t="s">
         <v>21</v>
@@ -45660,10 +46791,10 @@
         <v>377</v>
       </c>
       <c r="DL5" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DM5" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="DN5" s="7" t="s">
         <v>95</v>
@@ -45717,7 +46848,7 @@
         <v>45</v>
       </c>
       <c r="EE5" s="7" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="EF5" s="7" t="s">
         <v>134</v>
@@ -45771,7 +46902,7 @@
         <v>406</v>
       </c>
       <c r="EW5" s="18" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="EX5" s="19" t="s">
         <v>204</v>
@@ -45786,7 +46917,7 @@
         <v>205</v>
       </c>
       <c r="FB5" s="18" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="FC5" s="18" t="s">
         <v>119</v>
@@ -45834,7 +46965,7 @@
         <v>407</v>
       </c>
       <c r="FR5" s="3" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="FS5" s="1" t="s">
         <v>204</v>
@@ -45861,10 +46992,10 @@
         <v>29</v>
       </c>
       <c r="GA5" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="GB5" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="GC5" s="3" t="s">
         <v>119</v>
@@ -45918,10 +47049,10 @@
         <v>0</v>
       </c>
       <c r="GT5" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="GU5" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="GV5" s="1">
         <v>785</v>
@@ -45933,10 +47064,10 @@
         <v>95</v>
       </c>
       <c r="GY5" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="GZ5" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="HA5" s="3" t="s">
         <v>119</v>
